--- a/szxc_data_cleaning/tests/import/2户籍人口_导入模板.xlsx
+++ b/szxc_data_cleaning/tests/import/2户籍人口_导入模板.xlsx
@@ -1,43 +1,517 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelate\Documents\smalltools\Small-Tools\szxc_data_cleaning\tests\import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF836260-9B6A-4EEE-9B0B-CDD676F2EF4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="户籍人口" sheetId="3" r:id="rId1"/>
+    <sheet name="字典项" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">户籍人口!$A$1:$N$2</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Esther</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">同一个户主门牌号不能重复。门牌号可参考如下格式：行政村+小组+自然村+号码。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">目前与户主关系限定如下：户主，配偶，子，女，女婿，儿媳，兄弟姐妹，孙子、孙女或外孙子、外孙女，祖父母或外祖父母，父母，曾孙子、曾孙女或曾外孙子、曾外孙女，其他亲属，非亲属
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">民族格式：XX族
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目前婚姻状况限定如下：
+未婚，已婚，初婚，再婚，复婚，丧偶，离婚，未说明婚姻状况</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>目前文化程度限定如下：
+研究生，（大学）本科、专科教育（大专），中等职业教育（中专），普通高级中学教育(高中)，初级中学教育（初中），小学教育（小学），文盲或半文盲，其他</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">目前政治面貌限定如下：中共党员，中共预备党员，共青团员，民革党员，民盟盟员，民建会员，民进会员，农工党党员，致公党党员，九三学社社员，台盟盟员，无党派民主人士，群众（现称普通公民）
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>小组</t>
+  </si>
+  <si>
+    <t>自然村</t>
+  </si>
+  <si>
+    <t>门牌号</t>
+  </si>
+  <si>
+    <t>与户主关系</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+  </si>
+  <si>
+    <t>是否常住</t>
+  </si>
+  <si>
+    <t>文化程度</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>工作单位</t>
+  </si>
+  <si>
+    <t>政治面貌</t>
+  </si>
+  <si>
+    <t>1组</t>
+  </si>
+  <si>
+    <t>1组***16号</t>
+  </si>
+  <si>
+    <t>户主</t>
+  </si>
+  <si>
+    <t>于一一</t>
+  </si>
+  <si>
+    <t>320520199903062715</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>已婚</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>小学教育（小学）</t>
+  </si>
+  <si>
+    <t>群众（现称普通公民）</t>
+  </si>
+  <si>
+    <t>户口性质</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>农村</t>
+  </si>
+  <si>
+    <t>研究生</t>
+  </si>
+  <si>
+    <t>中共党员</t>
+  </si>
+  <si>
+    <t>配偶</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>（大学）本科</t>
+  </si>
+  <si>
+    <t>中共预备党员</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>初婚</t>
+  </si>
+  <si>
+    <t>专科教育（大专）</t>
+  </si>
+  <si>
+    <t>共青团员</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>再婚</t>
+  </si>
+  <si>
+    <t>中等职业教育（中专）</t>
+  </si>
+  <si>
+    <t>民革党员</t>
+  </si>
+  <si>
+    <t>女婿</t>
+  </si>
+  <si>
+    <t>复婚</t>
+  </si>
+  <si>
+    <t>普通高级中学教育(高中)</t>
+  </si>
+  <si>
+    <t>民盟盟员</t>
+  </si>
+  <si>
+    <t>儿媳</t>
+  </si>
+  <si>
+    <t>丧偶</t>
+  </si>
+  <si>
+    <t>初级中学教育（初中）</t>
+  </si>
+  <si>
+    <t>民建会员</t>
+  </si>
+  <si>
+    <t>兄弟姐妹</t>
+  </si>
+  <si>
+    <t>离婚</t>
+  </si>
+  <si>
+    <t>民进会员</t>
+  </si>
+  <si>
+    <t>孙子、孙女或外孙子、外孙女</t>
+  </si>
+  <si>
+    <t>未说明婚姻状况</t>
+  </si>
+  <si>
+    <t>农工党党员</t>
+  </si>
+  <si>
+    <t>祖父母或外祖父母</t>
+  </si>
+  <si>
+    <t>致公党党员</t>
+  </si>
+  <si>
+    <t>父母</t>
+  </si>
+  <si>
+    <t>九三学社社员</t>
+  </si>
+  <si>
+    <t>曾孙子、曾孙女或曾外孙子、曾外孙女</t>
+  </si>
+  <si>
+    <t>台盟盟员</t>
+  </si>
+  <si>
+    <t>其他亲属</t>
+  </si>
+  <si>
+    <t>无党派民主人士</t>
+  </si>
+  <si>
+    <t>非亲属</t>
+  </si>
+  <si>
+    <t>迁入原因</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁入日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁入原因</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁入市（县）外</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>文盲或半文盲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否常住</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张专辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>320520199903062712</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>320520199903062711</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1组1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>池子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>320520199903062716</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +519,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +669,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -79,44 +679,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +746,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -190,153 +790,803 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="12">
+        <v>13915633922</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="20">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="12">
+        <v>13915633922</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="20">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:AD1576">
+    <sortCondition ref="A2:A1576"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(#REF!="","",(IF(MID("10X98765432",MOD(SUMPRODUCT(MID(#REF!,ROW(INDIRECT("1:17")),1)*2^(18-ROW(INDIRECT("+$G$11:17")))),11)+1,1)=MID(#REF!,18,18),"正确","错误")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>2</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" showInputMessage="1" showErrorMessage="1" error="请输入正确的数字" sqref="A1:A1048576" xr:uid="{6B75A1E3-F753-41BC-AB08-9B736215580D}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请输入正确的身份证" sqref="G1:G1048576" xr:uid="{61C6E4C8-E154-418D-82D5-3C1F30842623}">
+      <formula1>15</formula1>
+      <formula2>18</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{63AD2313-B7E1-4142-9B48-A17235ECAB24}">
+      <formula1>10000000000</formula1>
+      <formula2>99999999999</formula2>
+    </dataValidation>
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" error="请输入正确的迁入日期" sqref="P1:P1048576" xr:uid="{421EED08-302A-479E-9AE6-C516057CF373}">
+      <formula1>1</formula1>
+      <formula2>401768</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择正确的文化程度" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>字典项!$E$2:$E$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择正确的政治面貌" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>字典项!$F$2:$F$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择正确的与户主关系" xr:uid="{DA9D60E4-73FE-4944-8C98-5DCFC4960F31}">
+          <x14:formula1>
+            <xm:f>字典项!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择正确的婚姻状况" xr:uid="{DA1E0CA6-E01D-44F8-B2AA-58C7A17E0957}">
+          <x14:formula1>
+            <xm:f>字典项!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择正确的是否常住" xr:uid="{0A09233D-CE73-49EF-83C7-8ECE8E6FA08D}">
+          <x14:formula1>
+            <xm:f>字典项!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="请选择正确的迁入原因" xr:uid="{D7C0851B-9B8A-4AB5-97B6-7704DC44C1E6}">
+          <x14:formula1>
+            <xm:f>字典项!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>O1:O1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>